--- a/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_磐石组.xlsx
+++ b/VersionRecords/Version 5.0.4/版本Bug和特性计划及评审表v5.0.4_磐石组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
   <si>
     <t>No</t>
   </si>
@@ -239,6 +239,30 @@
   </si>
   <si>
     <t>王之臣</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要不紧急</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要且紧急</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除图片 roomdi为空判断</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>李敖</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1018,7 +1042,7 @@
   <dimension ref="A1:U179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:M6"/>
+      <selection activeCell="P6" sqref="P6:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1245,7 +1269,7 @@
         <v>30</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="N4" s="24" t="s">
         <v>44</v>
@@ -1300,7 +1324,7 @@
         <v>44</v>
       </c>
       <c r="O5" s="16">
-        <v>42669</v>
+        <v>42668</v>
       </c>
       <c r="P5" s="24" t="s">
         <v>45</v>
@@ -1314,7 +1338,7 @@
     <row r="6" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>59</v>
@@ -1349,7 +1373,7 @@
         <v>44</v>
       </c>
       <c r="O6" s="16">
-        <v>42670</v>
+        <v>42668</v>
       </c>
       <c r="P6" s="24" t="s">
         <v>45</v>
@@ -1362,21 +1386,47 @@
     </row>
     <row r="7" spans="1:21" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="B7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="16">
+        <v>42668</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="I7" s="16"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="24"/>
+      <c r="K7" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="16">
+        <v>42669</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>45</v>
+      </c>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
       <c r="S7" s="21"/>
@@ -1391,7 +1441,7 @@
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="16"/>
       <c r="J8" s="15"/>
       <c r="K8" s="24"/>
